--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C24958-9B78-40B5-BB2F-C135EB5CE6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9135766-33CF-4E94-BDE8-0404C3B5E9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-8805" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="-12405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9135766-33CF-4E94-BDE8-0404C3B5E9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC11E98-C86E-4984-AE5C-54D7D0CC9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="-12405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31110" yWindow="-11970" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,11 +1335,10 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CC11E98-C86E-4984-AE5C-54D7D0CC9356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDED48-3D27-40A0-8A20-9A7493816EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31110" yWindow="-11970" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6CDED48-3D27-40A0-8A20-9A7493816EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597DA7D2-1691-49A9-BAAC-EF5538B9EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38145" yWindow="-11715" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30675" yWindow="-12405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,10 +1335,11 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
-        <v>1</v>
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/3</f>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{597DA7D2-1691-49A9-BAAC-EF5538B9EE09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B68829-774A-4A5A-B383-B25E116662A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30675" yWindow="-12405" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31500" yWindow="-11580" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C1" sqref="C1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1338,15 +1338,15 @@
         <v>3</v>
       </c>
       <c r="C1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
-        <f>1/3</f>
+        <f>1/$B$1</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6B68829-774A-4A5A-B383-B25E116662A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4AA809-EF38-4027-A44A-70D3BF80F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31500" yWindow="-11580" windowWidth="28800" windowHeight="15285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1322,7 +1322,7 @@
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF4AA809-EF38-4027-A44A-70D3BF80F64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DB358-F9D6-4CD3-BF67-66D15F63BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F6DB358-F9D6-4CD3-BF67-66D15F63BE0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE73CA-57E5-4CD0-ACC2-DBAE4CDDF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44EE73CA-57E5-4CD0-ACC2-DBAE4CDDF02B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C52E9E-9A4F-4692-AB51-7254D6CF4E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3348" yWindow="3348" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9C52E9E-9A4F-4692-AB51-7254D6CF4E44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BF0FC-9B03-4A82-809A-F710D1DF63EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98BF0FC-9B03-4A82-809A-F710D1DF63EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C871F16-441E-449F-8891-3683F97081D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2652" yWindow="2652" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C871F16-441E-449F-8891-3683F97081D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A7E5DF-49B0-48C1-82BD-29CE2D32899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="3000" windowWidth="17280" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A7E5DF-49B0-48C1-82BD-29CE2D32899A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43F54BB-9038-42C1-8268-94420933C486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43F54BB-9038-42C1-8268-94420933C486}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C7075-1BB6-4AB8-9451-87BA6F0E0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17C7075-1BB6-4AB8-9451-87BA6F0E0E53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB17D98-9464-4A43-9418-5BC0B78C281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1335,19 +1335,19 @@
         <v>1</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E1" s="1">
         <f>1/$B$1</f>
-        <v>1</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BB17D98-9464-4A43-9418-5BC0B78C281F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284ADCA-7585-4CAB-AEB7-32EAC1F4CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/data/CS5/Market Data/CS5_market_data_2040.xlsx
+++ b/data/CS5/Market Data/CS5_market_data_2040.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\thesis-shared-resources-planning-no_esso-degradation\data\CS5\Market Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5284ADCA-7585-4CAB-AEB7-32EAC1F4CE51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37BB90D9-8381-46C7-997B-379EB3E06BC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-14400" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="1" r:id="rId1"/>
